--- a/raw_data/fundametal_data/funda_list.xlsx
+++ b/raw_data/fundametal_data/funda_list.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaistbs5\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sadaree\Documents\GitHub\DL_final_proj\raw_data\fundametal_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12225" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12225" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1693,7 +1693,7 @@
   <dimension ref="A2:IU6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:IU6"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5543,11 +5543,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -7342,12 +7345,68 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E8"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>6000401001</v>
+      </c>
+      <c r="E1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>6000401006</v>
+      </c>
+      <c r="E2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>6000402001</v>
+      </c>
+      <c r="E3" t="s">
+        <v>436</v>
+      </c>
+    </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>259</v>
@@ -7359,10 +7418,10 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>6000401001</v>
+        <v>6000403001</v>
       </c>
       <c r="E4" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -7376,60 +7435,9 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>6000401006</v>
+        <v>6000403002</v>
       </c>
       <c r="E5" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>6000402001</v>
-      </c>
-      <c r="E6" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>259</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>6000403001</v>
-      </c>
-      <c r="E7" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>259</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>6000403002</v>
-      </c>
-      <c r="E8" t="s">
         <v>438</v>
       </c>
     </row>
@@ -7443,11 +7451,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -7515,6 +7526,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -11866,6 +11881,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -33553,10 +33572,14 @@
   <dimension ref="A1:E182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E182"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -36663,10 +36686,13 @@
   <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E105"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -38468,6 +38494,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -38786,10 +38815,13 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E29"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -39292,14 +39324,68 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:E48"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:A3"/>
+      <selection activeCell="A3" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>6000301001</v>
+      </c>
+      <c r="E1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>6000303001</v>
+      </c>
+      <c r="E2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>6000303008</v>
+      </c>
+      <c r="E3" t="s">
+        <v>391</v>
+      </c>
+    </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>259</v>
@@ -39311,10 +39397,10 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>6000301001</v>
+        <v>6000303006</v>
       </c>
       <c r="E4" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -39328,10 +39414,10 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>6000303001</v>
+        <v>6000303005</v>
       </c>
       <c r="E5" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -39345,10 +39431,10 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>6000303008</v>
+        <v>6000305009</v>
       </c>
       <c r="E6" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -39362,10 +39448,10 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>6000303006</v>
+        <v>6000305013</v>
       </c>
       <c r="E7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -39379,10 +39465,10 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>6000303005</v>
+        <v>6000305011</v>
       </c>
       <c r="E8" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -39396,10 +39482,10 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>6000305009</v>
+        <v>6000304001</v>
       </c>
       <c r="E9" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -39413,10 +39499,10 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>6000305013</v>
+        <v>6000304008</v>
       </c>
       <c r="E10" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -39430,10 +39516,10 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>6000305011</v>
+        <v>6000304002</v>
       </c>
       <c r="E11" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -39447,10 +39533,10 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>6000304001</v>
+        <v>6000304003</v>
       </c>
       <c r="E12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -39464,10 +39550,10 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>6000304008</v>
+        <v>6000304009</v>
       </c>
       <c r="E13" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -39481,10 +39567,10 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <v>6000304002</v>
+        <v>6000304004</v>
       </c>
       <c r="E14" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -39498,10 +39584,10 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>6000304003</v>
+        <v>6000305001</v>
       </c>
       <c r="E15" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -39515,10 +39601,10 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>6000304009</v>
+        <v>6000311003</v>
       </c>
       <c r="E16" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -39532,10 +39618,10 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>6000304004</v>
+        <v>6000305003</v>
       </c>
       <c r="E17" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -39549,10 +39635,10 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>6000305001</v>
+        <v>6000305012</v>
       </c>
       <c r="E18" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -39566,10 +39652,10 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>6000311003</v>
+        <v>6000305004</v>
       </c>
       <c r="E19" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -39583,10 +39669,10 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>6000305003</v>
+        <v>6000305006</v>
       </c>
       <c r="E20" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -39600,10 +39686,10 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>6000305012</v>
+        <v>6000305007</v>
       </c>
       <c r="E21" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -39617,10 +39703,10 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>6000305004</v>
+        <v>6000302001</v>
       </c>
       <c r="E22" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -39634,10 +39720,10 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>6000305006</v>
+        <v>6000302008</v>
       </c>
       <c r="E23" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -39651,10 +39737,10 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>6000305007</v>
+        <v>6000302015</v>
       </c>
       <c r="E24" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -39668,10 +39754,10 @@
         <v>2</v>
       </c>
       <c r="D25">
-        <v>6000302001</v>
+        <v>6000306001</v>
       </c>
       <c r="E25" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -39685,10 +39771,10 @@
         <v>2</v>
       </c>
       <c r="D26">
-        <v>6000302008</v>
+        <v>6000312004</v>
       </c>
       <c r="E26" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -39702,10 +39788,10 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>6000302015</v>
+        <v>6000306012</v>
       </c>
       <c r="E27" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -39719,10 +39805,10 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>6000306001</v>
+        <v>6000306002</v>
       </c>
       <c r="E28" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -39736,10 +39822,10 @@
         <v>2</v>
       </c>
       <c r="D29">
-        <v>6000312004</v>
+        <v>6000306003</v>
       </c>
       <c r="E29" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -39753,10 +39839,10 @@
         <v>2</v>
       </c>
       <c r="D30">
-        <v>6000306012</v>
+        <v>6000306015</v>
       </c>
       <c r="E30" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -39770,10 +39856,10 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <v>6000306002</v>
+        <v>6000306005</v>
       </c>
       <c r="E31" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -39787,10 +39873,10 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <v>6000306003</v>
+        <v>6000307001</v>
       </c>
       <c r="E32" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -39804,10 +39890,10 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>6000306015</v>
+        <v>6000312005</v>
       </c>
       <c r="E33" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -39821,10 +39907,10 @@
         <v>2</v>
       </c>
       <c r="D34">
-        <v>6000306005</v>
+        <v>6000307006</v>
       </c>
       <c r="E34" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -39838,10 +39924,10 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>6000307001</v>
+        <v>6000307002</v>
       </c>
       <c r="E35" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -39855,10 +39941,10 @@
         <v>2</v>
       </c>
       <c r="D36">
-        <v>6000312005</v>
+        <v>6000312001</v>
       </c>
       <c r="E36" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
@@ -39872,10 +39958,10 @@
         <v>2</v>
       </c>
       <c r="D37">
-        <v>6000307006</v>
+        <v>6000307015</v>
       </c>
       <c r="E37" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -39889,10 +39975,10 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>6000307002</v>
+        <v>6000312002</v>
       </c>
       <c r="E38" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
@@ -39906,10 +39992,10 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>6000312001</v>
+        <v>6000307003</v>
       </c>
       <c r="E39" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
@@ -39923,10 +40009,10 @@
         <v>2</v>
       </c>
       <c r="D40">
-        <v>6000307015</v>
+        <v>6000312006</v>
       </c>
       <c r="E40" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
@@ -39940,10 +40026,10 @@
         <v>2</v>
       </c>
       <c r="D41">
-        <v>6000312002</v>
+        <v>6000307005</v>
       </c>
       <c r="E41" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
@@ -39957,10 +40043,10 @@
         <v>2</v>
       </c>
       <c r="D42">
-        <v>6000307003</v>
+        <v>6000307013</v>
       </c>
       <c r="E42" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
@@ -39974,10 +40060,10 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>6000312006</v>
+        <v>6000307009</v>
       </c>
       <c r="E43" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
@@ -39991,10 +40077,10 @@
         <v>2</v>
       </c>
       <c r="D44">
-        <v>6000307005</v>
+        <v>6000307010</v>
       </c>
       <c r="E44" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
@@ -40008,60 +40094,9 @@
         <v>2</v>
       </c>
       <c r="D45">
-        <v>6000307013</v>
+        <v>6000307011</v>
       </c>
       <c r="E45" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>259</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46">
-        <v>6000307009</v>
-      </c>
-      <c r="E46" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>259</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47">
-        <v>6000307010</v>
-      </c>
-      <c r="E47" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>259</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48">
-        <v>6000307011</v>
-      </c>
-      <c r="E48" t="s">
         <v>433</v>
       </c>
     </row>
@@ -40073,14 +40108,119 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:E30"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E30"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>6000111001</v>
+      </c>
+      <c r="E1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>6000103001</v>
+      </c>
+      <c r="E2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>6000102009</v>
+      </c>
+      <c r="E3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>6000105009</v>
+      </c>
+      <c r="E4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>6000101022</v>
+      </c>
+      <c r="E5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>6000111002</v>
+      </c>
+      <c r="E6" t="s">
+        <v>265</v>
+      </c>
+    </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>259</v>
@@ -40092,10 +40232,10 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>6000111001</v>
+        <v>6000102001</v>
       </c>
       <c r="E7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -40109,10 +40249,10 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>6000103001</v>
+        <v>6000102007</v>
       </c>
       <c r="E8" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -40126,10 +40266,10 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>6000102009</v>
+        <v>6000103007</v>
       </c>
       <c r="E9" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -40143,10 +40283,10 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>6000105009</v>
+        <v>6000104008</v>
       </c>
       <c r="E10" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -40160,10 +40300,10 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>6000101022</v>
+        <v>6000104007</v>
       </c>
       <c r="E11" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -40177,10 +40317,10 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>6000111002</v>
+        <v>6000102011</v>
       </c>
       <c r="E12" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -40194,10 +40334,10 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>6000102001</v>
+        <v>6000114003</v>
       </c>
       <c r="E13" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -40211,10 +40351,10 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <v>6000102007</v>
+        <v>6000101030</v>
       </c>
       <c r="E14" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -40228,10 +40368,10 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>6000103007</v>
+        <v>6000105003</v>
       </c>
       <c r="E15" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -40245,10 +40385,10 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>6000104008</v>
+        <v>6000105010</v>
       </c>
       <c r="E16" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -40262,10 +40402,10 @@
         <v>2</v>
       </c>
       <c r="D17">
-        <v>6000104007</v>
+        <v>6000105001</v>
       </c>
       <c r="E17" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -40279,10 +40419,10 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>6000102011</v>
+        <v>6000105002</v>
       </c>
       <c r="E18" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -40296,10 +40436,10 @@
         <v>2</v>
       </c>
       <c r="D19">
-        <v>6000114003</v>
+        <v>6000105004</v>
       </c>
       <c r="E19" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -40313,10 +40453,10 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>6000101030</v>
+        <v>6000307007</v>
       </c>
       <c r="E20" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -40330,10 +40470,10 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>6000105003</v>
+        <v>6000307012</v>
       </c>
       <c r="E21" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -40347,10 +40487,10 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>6000105010</v>
+        <v>6000103004</v>
       </c>
       <c r="E22" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -40364,10 +40504,10 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>6000105001</v>
+        <v>6000103008</v>
       </c>
       <c r="E23" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -40381,111 +40521,9 @@
         <v>2</v>
       </c>
       <c r="D24">
-        <v>6000105002</v>
+        <v>6000103006</v>
       </c>
       <c r="E24" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>259</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>6000105004</v>
-      </c>
-      <c r="E25" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>259</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>6000307007</v>
-      </c>
-      <c r="E26" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>259</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>6000307012</v>
-      </c>
-      <c r="E27" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>259</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>6000103004</v>
-      </c>
-      <c r="E28" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>259</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29">
-        <v>6000103008</v>
-      </c>
-      <c r="E29" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>259</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30">
-        <v>6000103006</v>
-      </c>
-      <c r="E30" t="s">
         <v>283</v>
       </c>
     </row>
